--- a/Survey Data.xlsx
+++ b/Survey Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trvrb/Documents/src/tfcb_2019/homeworks/homework01/messy-project-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/246f28f0e70b4a33/Fred Hutch intern/tfcb-homework01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2EF31-99BB-1147-875E-0BF67F65B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{E4A2EF31-99BB-1147-875E-0BF67F65B824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A2909DD-96C0-46B7-A2B4-0C9E95EBB69E}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="481" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
     <sheet name="2014" sheetId="2" r:id="rId2"/>
+    <sheet name="Tidy Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="58">
   <si>
     <t>NA</t>
   </si>
@@ -140,6 +141,69 @@
   </si>
   <si>
     <t>gray cell means my measurement device wasn't calibrated correctly</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>52g</t>
+  </si>
+  <si>
+    <t>50g</t>
+  </si>
+  <si>
+    <t>117g</t>
+  </si>
+  <si>
+    <t>126g</t>
+  </si>
+  <si>
+    <t>132g (scale not calibrated)</t>
+  </si>
+  <si>
+    <t>122g</t>
+  </si>
+  <si>
+    <t>107g</t>
+  </si>
+  <si>
+    <t>115g</t>
+  </si>
+  <si>
+    <t>45g</t>
+  </si>
+  <si>
+    <t>41g</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>35g</t>
+  </si>
+  <si>
+    <t>113g (scale not calibrated)</t>
+  </si>
+  <si>
+    <t>157g (scale not calibrated)</t>
+  </si>
+  <si>
+    <t>44g</t>
+  </si>
+  <si>
+    <t>7g</t>
+  </si>
+  <si>
+    <t>36g</t>
+  </si>
+  <si>
+    <t>218g (scale not calibrated)</t>
+  </si>
+  <si>
+    <t>51g</t>
+  </si>
+  <si>
+    <t>146g</t>
   </si>
 </sst>
 </file>
@@ -149,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -187,6 +251,11 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -317,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,6 +409,22 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +816,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -775,7 +860,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -800,30 +885,30 @@
   <dimension ref="C3:AB28"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="A4" sqref="A4:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1"/>
-    <col min="3" max="3" width="26.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="24.83203125" customWidth="1"/>
-    <col min="16" max="16" width="52.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="26.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
+    <col min="16" max="16" width="52.85546875" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="1"/>
-    <col min="21" max="21" width="19.83203125" customWidth="1"/>
-    <col min="26" max="26" width="17.5" customWidth="1"/>
-    <col min="29" max="16384" width="11.5" style="1"/>
+    <col min="20" max="20" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" customWidth="1"/>
+    <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" ht="79" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" ht="78.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
@@ -842,7 +927,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -859,7 +944,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -876,7 +961,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
@@ -899,7 +984,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
@@ -940,7 +1025,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C8" s="18">
         <v>41471</v>
       </c>
@@ -979,7 +1064,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C9" s="18">
         <v>41471</v>
       </c>
@@ -1020,7 +1105,7 @@
       </c>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C10" s="18">
         <v>41471</v>
       </c>
@@ -1059,7 +1144,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C11" s="18">
         <v>41471</v>
       </c>
@@ -1098,7 +1183,7 @@
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C12" s="18">
         <v>41473</v>
       </c>
@@ -1139,7 +1224,7 @@
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C13" s="18">
         <v>41473</v>
       </c>
@@ -1180,7 +1265,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C14" s="18">
         <v>41473</v>
       </c>
@@ -1213,7 +1298,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C15" s="19">
         <v>41473</v>
       </c>
@@ -1238,7 +1323,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1255,7 +1340,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1272,7 +1357,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1289,7 +1374,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1306,7 +1391,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1323,7 +1408,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1340,7 +1425,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1357,7 +1442,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -1366,7 +1451,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -1375,22 +1460,22 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G25" s="5"/>
       <c r="L25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G26" s="5"/>
       <c r="L26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G27" s="5"/>
       <c r="L27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G28" s="5"/>
       <c r="L28" s="5"/>
       <c r="Q28" s="5"/>
@@ -1408,31 +1493,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:S47"/>
+  <dimension ref="C2:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="11.5" style="1"/>
-    <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
-    <col min="15" max="19" width="11.5" style="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="55.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" style="1" customWidth="1"/>
+    <col min="15" max="19" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="32" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:26" ht="69" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1544,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1495,8 +1584,20 @@
         <v>10</v>
       </c>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="W7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C8" s="6">
         <v>41648</v>
       </c>
@@ -1533,7 +1634,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C9" s="6">
         <v>41648</v>
       </c>
@@ -1572,7 +1673,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C10" s="6">
         <v>41711</v>
       </c>
@@ -1607,7 +1708,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C11" s="6">
         <v>41711</v>
       </c>
@@ -1648,7 +1749,7 @@
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C12" s="6">
         <v>41711</v>
       </c>
@@ -1685,7 +1786,7 @@
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1718,7 +1819,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1747,7 +1848,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1772,7 +1873,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:26" ht="30" x14ac:dyDescent="0.4">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1797,7 +1898,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1822,7 +1923,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1839,7 +1940,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1856,7 +1957,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1873,7 +1974,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1890,7 +1991,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1909,7 +2010,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1926,7 +2027,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1943,7 +2044,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1960,7 +2061,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1977,7 +2078,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1988,15 +2089,13 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C28" s="4" t="s">
         <v>16</v>
       </c>
@@ -2019,7 +2118,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C29" s="6">
         <v>28498</v>
       </c>
@@ -2042,7 +2141,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C30" s="6">
         <v>28498</v>
       </c>
@@ -2063,7 +2162,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C31" s="6">
         <v>28498</v>
       </c>
@@ -2086,7 +2185,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C32" s="6">
         <v>28498</v>
       </c>
@@ -2109,7 +2208,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C33" s="6">
         <v>28498</v>
       </c>
@@ -2132,7 +2231,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2149,7 +2248,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2166,7 +2265,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2183,7 +2282,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2198,7 +2297,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2215,7 +2314,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="L39" s="5"/>
@@ -2225,7 +2324,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="L40" s="5"/>
@@ -2235,7 +2334,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="L41" s="5"/>
@@ -2245,34 +2344,34 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="L42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="L43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G44" s="5"/>
       <c r="L44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G45" s="5"/>
       <c r="L45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G46" s="5"/>
       <c r="L46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:17" ht="30" x14ac:dyDescent="0.4">
       <c r="G47" s="5"/>
       <c r="L47" s="5"/>
       <c r="Q47" s="5"/>
@@ -2280,10 +2379,1718 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5F9F9-FC2C-412C-ABC9-8C95D49CAB8C}">
+  <dimension ref="A1:AG49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" customWidth="1"/>
+    <col min="20" max="20" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="57.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>28498</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>28498</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>28498</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>28498</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>28498</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A7" s="24">
+        <v>41471</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A8" s="24">
+        <v>41471</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="5"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A9" s="24">
+        <v>41471</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="5"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A10" s="24">
+        <v>41471</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="28"/>
+    </row>
+    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A11" s="24">
+        <v>41473</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="23">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="28"/>
+    </row>
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A12" s="24">
+        <v>41473</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="23">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="28"/>
+    </row>
+    <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A13" s="24">
+        <v>41473</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="23">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="28"/>
+    </row>
+    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A14" s="24">
+        <v>41473</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="23">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="28"/>
+    </row>
+    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A15" s="24">
+        <v>41505</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="23">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="28"/>
+    </row>
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A16" s="24">
+        <v>41564</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="28"/>
+    </row>
+    <row r="17" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A17" s="24">
+        <v>41564</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="28"/>
+    </row>
+    <row r="18" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A18" s="24">
+        <v>41590</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="23">
+        <v>9</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="28"/>
+    </row>
+    <row r="19" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A19" s="24">
+        <v>41591</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="23">
+        <v>11</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="28"/>
+    </row>
+    <row r="20" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="24">
+        <v>41591</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="23">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+    </row>
+    <row r="21" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A21" s="24">
+        <v>41591</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="23">
+        <v>14</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+    </row>
+    <row r="22" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A22" s="24">
+        <v>41591</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="23">
+        <v>11</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="28"/>
+    </row>
+    <row r="23" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A23" s="24">
+        <v>41591</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="23">
+        <v>4</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+    </row>
+    <row r="24" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A24" s="24">
+        <v>41591</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="23">
+        <v>4</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+    </row>
+    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A25" s="24">
+        <v>41618</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="23">
+        <v>9</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+    </row>
+    <row r="26" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A26" s="24">
+        <v>41618</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+    </row>
+    <row r="27" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A27" s="24">
+        <v>41619</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="23">
+        <v>8</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+    </row>
+    <row r="28" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A28" s="24">
+        <v>41647</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="25">
+        <v>2</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+    </row>
+    <row r="29" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A29" s="24">
+        <v>41647</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="25">
+        <v>2</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+    </row>
+    <row r="30" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A30" s="24">
+        <v>41647</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="25">
+        <v>2</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+    </row>
+    <row r="31" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A31" s="24">
+        <v>41647</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="25">
+        <v>2</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="28"/>
+    </row>
+    <row r="32" spans="1:33" ht="30" x14ac:dyDescent="0.4">
+      <c r="A32" s="24">
+        <v>41647</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="25">
+        <v>2</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="28"/>
+    </row>
+    <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A33" s="24">
+        <v>41647</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="25">
+        <v>2</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="28"/>
+    </row>
+    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A34" s="24">
+        <v>41647</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="25">
+        <v>2</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="28"/>
+    </row>
+    <row r="35" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A35" s="24">
+        <v>41648</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="25">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="28"/>
+    </row>
+    <row r="36" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A36" s="24">
+        <v>41648</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A37" s="24">
+        <v>41688</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="25">
+        <v>2</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A38" s="24">
+        <v>41688</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="25">
+        <v>2</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A39" s="24">
+        <v>41688</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="25">
+        <v>2</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A40" s="24">
+        <v>41711</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="25">
+        <v>1</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A41" s="24">
+        <v>41711</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="25">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A42" s="24">
+        <v>41711</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="25">
+        <v>1</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A43" s="24">
+        <v>42074</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="23">
+        <v>8</v>
+      </c>
+      <c r="E43" s="25">
+        <v>3</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A44" s="24">
+        <v>42102</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="25">
+        <v>3</v>
+      </c>
+      <c r="I44" s="26"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A45" s="24">
+        <v>42130</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="25">
+        <v>3</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A46" s="24">
+        <v>42142</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="23">
+        <v>182</v>
+      </c>
+      <c r="E46" s="25">
+        <v>3</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A47" s="24">
+        <v>42164</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="23">
+        <v>29</v>
+      </c>
+      <c r="E47" s="25">
+        <v>3</v>
+      </c>
+      <c r="I47" s="26"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+      <c r="A48" s="24">
+        <v>42193</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="23">
+        <v>115</v>
+      </c>
+      <c r="E48" s="25">
+        <v>3</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+      <c r="A49" s="24">
+        <v>42193</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="23">
+        <v>190</v>
+      </c>
+      <c r="E49" s="25">
+        <v>3</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>